--- a/01. HUB/volumen & xenofobia/tasa xenobia/picos xenofobia/2025/Bases Paises Q2-25/01. Resultados Marcacion/pico_marcacion_ecuador.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/picos xenofobia/2025/Bases Paises Q2-25/01. Resultados Marcacion/pico_marcacion_ecuador.xlsx
@@ -1,12 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Documentos El Barometro/GitHub/BX-HUB-Indicadores/01. HUB/volumen &amp; xenofobia/tasa xenobia/picos xenofobia/2025/Bases Paises Q2-25/01. Resultados Marcacion/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90BB0E5-121B-7144-8867-C964D340A1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$167</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="FE+JJ+U2t8XY/vSjC5vaSahvkqrW9QZCZStNiH2T7uE="/>
@@ -16,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="201">
   <si>
     <t>Date</t>
   </si>
@@ -63,9 +75,6 @@
     <t>Seis personas fueron asesinadas en menos de diez horas este 4 de abril en El Oro, incluyendo un empresario extorsionado, un venezolano, un padre y su hijo, y dos jóvenes en El Guabo. Más información: https://t.co/qPpRrZ0Iih https://t.co/qHuhOKxRVQ</t>
   </si>
   <si>
-    <t>72,1</t>
-  </si>
-  <si>
     <t>http://twitter.com/Expresoec/statuses/1908253501978714123</t>
   </si>
   <si>
@@ -75,9 +84,6 @@
     <t>RT @TiempoRealEC 🆘.#URGENTE || 📍La población del sector de Calderón, al norte de #Quito, exige que el gobierno tome medidas emergentes frente a los delincuentes y as3sinos extranjeros, especialmente venezolanos, que se han tomado las calles de la capital. ❌ Supuestos delivery, en motocicleta 🏍️, persiguen a su víctima, quien intenta huir...</t>
   </si>
   <si>
-    <t>55,2</t>
-  </si>
-  <si>
     <t>http://twitter.com/Gio_Dupleint/statuses/1908332696775905626</t>
   </si>
   <si>
@@ -87,24 +93,15 @@
     <t>Un hombre fue asesinado a tiros la madrugada de este viernes 4 de abril, en el cantón Arenillas. Andrés Rodríguez, un ciudadano venezolano de 33 años, fue atacado en los exteriores de una discoteca en el Barrio Central. Más información aquí: https://t.co/a2JIMcXJuE https://t.co/4RF5LQNOgQ</t>
   </si>
   <si>
-    <t>38,9</t>
-  </si>
-  <si>
     <t>http://twitter.com/MachalaMovil/statuses/1908135074396053732</t>
   </si>
   <si>
     <t>ESTOY LLORANDO CON LAS HUEVADAS QUE LE ENCAMAN LOS VENECOS AL CHAMO GONZÁLEZ EN TIK TOK 😭😭😭 https://t.co/54pcjtsUYx</t>
   </si>
   <si>
-    <t>41,2</t>
-  </si>
-  <si>
     <t>http://twitter.com/Gracianismo/statuses/1908348651379777704</t>
   </si>
   <si>
-    <t>31,1</t>
-  </si>
-  <si>
     <t>http://twitter.com/PerseusSan/statuses/1908286500309028998</t>
   </si>
   <si>
@@ -114,15 +111,9 @@
     <t>Mientras @DanielNoboaOk quiere traer más venecos a este país, solo Luisa los va a expulsar. ¡Vota por Luisa para tener un Ecuador sin venecos!</t>
   </si>
   <si>
-    <t>41,6</t>
-  </si>
-  <si>
     <t>http://twitter.com/MaestroPishco/statuses/1908300383966953525</t>
   </si>
   <si>
-    <t>27,9</t>
-  </si>
-  <si>
     <t>http://twitter.com/kimontare/statuses/1908177482278150239</t>
   </si>
   <si>
@@ -135,33 +126,18 @@
     <t>http://twitter.com/jespinozaef/statuses/1908311201987096695</t>
   </si>
   <si>
-    <t>23,2</t>
-  </si>
-  <si>
     <t>http://twitter.com/PacoGuerraV/statuses/1908246465920504252</t>
   </si>
   <si>
-    <t>17,5</t>
-  </si>
-  <si>
     <t>http://twitter.com/MaryPz2019/statuses/1908187105508938145</t>
   </si>
   <si>
-    <t>13,9</t>
-  </si>
-  <si>
     <t>http://twitter.com/Chrispaz/statuses/1908228888460738777</t>
   </si>
   <si>
-    <t>7,2</t>
-  </si>
-  <si>
     <t>http://twitter.com/ArellaProano/statuses/1908264909936238641</t>
   </si>
   <si>
-    <t>7,1</t>
-  </si>
-  <si>
     <t>http://twitter.com/AltRickHunter/statuses/1908199715973345591</t>
   </si>
   <si>
@@ -171,42 +147,24 @@
     <t>RT @Expresoec Seis personas fueron asesinadas en menos de diez horas este 4 de abril en El Oro, incluyendo un empresario extorsionado, un venezolano, un padre y su hijo, y dos jóvenes en El Guabo. Más información: https://t.co/qPpRrZ0Iih https://t.co/qHuhOKxRVQ</t>
   </si>
   <si>
-    <t>3,4</t>
-  </si>
-  <si>
     <t>http://twitter.com/OswaldoVela1/statuses/1908257086485463499</t>
   </si>
   <si>
-    <t>3,2</t>
-  </si>
-  <si>
     <t>http://twitter.com/alexycaro3033/statuses/1908253384328851645</t>
   </si>
   <si>
-    <t>2,7</t>
-  </si>
-  <si>
     <t>http://twitter.com/Fabian3330L/statuses/1908329198373970389</t>
   </si>
   <si>
     <t>http://twitter.com/FerchaMafeben/statuses/1908282090291949812</t>
   </si>
   <si>
-    <t>1,1</t>
-  </si>
-  <si>
     <t>http://twitter.com/EdwinMo85933085/statuses/1908307283387314502</t>
   </si>
   <si>
-    <t>0,8</t>
-  </si>
-  <si>
     <t>http://twitter.com/MARIDOdela_liga/statuses/1908189999872311432</t>
   </si>
   <si>
-    <t>0,7</t>
-  </si>
-  <si>
     <t>http://twitter.com/kaballerokito/statuses/1908282651758543094</t>
   </si>
   <si>
@@ -238,9 +196,6 @@
   </si>
   <si>
     <t>...crimen organizado parecen estar detrás del incremento de la violencia en Machala y otros cantones de El Oro. Un extranjero entre las víctimas A la 01:30 de este viernes 4 de abril, en el barrio Central de Arenillas, fue asesinado el venezolano Andrés...</t>
-  </si>
-  <si>
-    <t>23,8</t>
   </si>
   <si>
     <t>https://www.extra.ec/noticia/provincias/ola-asesinatos-estremece-oro-seis-muertes-diez-horas-125050.html</t>
@@ -681,39 +636,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -721,11 +681,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -739,47 +705,51 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -969,23 +939,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>45751.598958333336</v>
       </c>
@@ -1028,30 +1000,30 @@
         <v>11</v>
       </c>
       <c r="D2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="I2" s="5">
-        <v>498176.0</v>
+        <v>498176</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>45751.84795138889</v>
+        <v>45751.847951388889</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
@@ -1060,6280 +1032,6279 @@
         <v>14</v>
       </c>
       <c r="D3" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="H3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1212816</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5">
-        <v>1212816.0</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>45752.06648148148</v>
+        <v>45752.066481481481</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>55.2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>154161</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="5">
-        <v>154161.0</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>45751.521145833336</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>38.9</v>
+      </c>
+      <c r="I5" s="5">
+        <v>21177</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>45752.110509259262</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>41.2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2124</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="5">
-        <v>21177.0</v>
-      </c>
-      <c r="J5" s="6" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>45751.939004629632</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>31.1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>9330</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>45752.11050925926</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="5">
-        <v>2124.0</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>45751.93900462963</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="5">
-        <v>9330.0</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45751.977314814816</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>41.6</v>
+      </c>
+      <c r="I8" s="5">
+        <v>10588</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>45751.638171296298</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>27.9</v>
+      </c>
+      <c r="I9" s="5">
+        <v>6910</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>45752.007164351853</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>26</v>
+      </c>
+      <c r="I10" s="5">
+        <v>6065</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="5" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>45751.828530092593</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>23.2</v>
+      </c>
+      <c r="I11" s="5">
+        <v>5142</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="5">
-        <v>10588.0</v>
-      </c>
-      <c r="J8" s="6" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>45751.664733796293</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="I12" s="5">
+        <v>4107</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>45751.6381712963</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="5">
-        <v>6910.0</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>45752.00716435185</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>26.0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>6065.0</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>45751.82853009259</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="5">
-        <v>5142.0</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>45751.66473379629</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="5">
-        <v>4107.0</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>45751.780023148145</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>13.9</v>
       </c>
       <c r="I13" s="5">
-        <v>3859.0</v>
+        <v>3859</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>45751.87943287037</v>
+        <v>45751.879432870373</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>7.2</v>
       </c>
       <c r="I14" s="5">
-        <v>3406.0</v>
+        <v>3406</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>45751.699525462966</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>47</v>
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>7.1</v>
       </c>
       <c r="I15" s="5">
-        <v>3376.0</v>
+        <v>3376</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>45751.857835648145</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G16" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>51</v>
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>3.4</v>
       </c>
       <c r="I16" s="5">
-        <v>2234.0</v>
+        <v>2234</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>45751.84762731481</v>
+        <v>45751.847627314812</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>3.2</v>
       </c>
       <c r="I17" s="5">
-        <v>2190.0</v>
+        <v>2190</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>45752.0568287037</v>
+        <v>45752.056828703702</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E18" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2.7</v>
       </c>
       <c r="I18" s="5">
-        <v>2091.0</v>
+        <v>2091</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>45751.926840277774</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H19" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="5">
-        <v>1970.0</v>
+        <v>1970</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>45751.996354166666</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1.1000000000000001</v>
       </c>
       <c r="I20" s="5">
-        <v>1828.0</v>
+        <v>1828</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>45751.67271990741</v>
+        <v>45751.672719907408</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E21" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.8</v>
       </c>
       <c r="I21" s="5">
-        <v>1772.0</v>
+        <v>1772</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>45751.928391203706</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E22" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.7</v>
       </c>
       <c r="I22" s="5">
-        <v>1763.0</v>
+        <v>1763</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>45752.03171296296</v>
+        <v>45752.031712962962</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H23" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I23" s="5">
-        <v>1656.0</v>
+        <v>1656</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>45751.61436342593</v>
+        <v>45751.614363425928</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E24" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H24" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I24" s="5">
-        <v>1292.0</v>
+        <v>1292</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>45751.75800925926</v>
+        <v>45751.758009259262</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E25" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H25" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I25" s="5">
-        <v>1287.0</v>
+        <v>1287</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>45752.00269675926</v>
+        <v>45752.002696759257</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E26" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H26" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I26" s="5">
-        <v>1286.0</v>
+        <v>1286</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>45751.90387731481</v>
+        <v>45751.903877314813</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E27" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H27" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I27" s="5">
-        <v>1210.0</v>
+        <v>1210</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>45751.897685185184</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E28" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I28" s="5">
-        <v>1162.0</v>
+        <v>1162</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>45751.709861111114</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E29" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H29" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I29" s="5">
-        <v>1090.0</v>
+        <v>1090</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>45751.97012731482</v>
+        <v>45751.970127314817</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E30" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I30" s="5">
-        <v>1036.0</v>
+        <v>1036</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>45751.93236111111</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D31" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E31" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F31" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G31" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
+        <v>23.8</v>
       </c>
       <c r="I31" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>45751.964849537035</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G32" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="H32" s="5">
+        <v>23.2</v>
       </c>
       <c r="I32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>45752.02918981481</v>
+        <v>45752.029189814813</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E33" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H33" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I33" s="5">
-        <v>930.0</v>
+        <v>930</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>45752.202361111114</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E34" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I34" s="5">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>45752.19033564815</v>
+        <v>45752.190335648149</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E35" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H35" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I35" s="5">
-        <v>274.0</v>
+        <v>274</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>45752.17774305555</v>
+        <v>45752.177743055552</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E36" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H36" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I36" s="5">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>45752.17519675926</v>
+        <v>45752.175196759257</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E37" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H37" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I37" s="5">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>45752.17170138889</v>
+        <v>45752.171701388892</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E38" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H38" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I38" s="5">
-        <v>744.0</v>
+        <v>744</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>45752.17050925926</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E39" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H39" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I39" s="5">
-        <v>669.0</v>
+        <v>669</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>45752.13196759259</v>
+        <v>45752.131967592592</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E40" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H40" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I40" s="5">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>45752.13109953704</v>
+        <v>45752.131099537037</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E41" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H41" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I41" s="5">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>45752.123252314814</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E42" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H42" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I42" s="5">
-        <v>670.0</v>
+        <v>670</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>45752.12322916667</v>
+        <v>45752.123229166667</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E43" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H43" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I43" s="5">
-        <v>611.0</v>
+        <v>611</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>45752.11347222222</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E44" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I44" s="5">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>45752.112546296295</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E45" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H45" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I45" s="5">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45752.109872685185</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E46" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I46" s="5">
-        <v>372.0</v>
+        <v>372</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>45752.10524305556</v>
+        <v>45752.105243055557</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E47" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H47" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I47" s="5">
-        <v>695.0</v>
+        <v>695</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>45752.10194444445</v>
+        <v>45752.101944444446</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E48" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I48" s="5">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>45752.10071759259</v>
+        <v>45752.100717592592</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E49" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H49" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I49" s="5">
-        <v>510.0</v>
+        <v>510</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>45752.10003472222</v>
+        <v>45752.100034722222</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E50" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H50" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I50" s="5">
-        <v>672.0</v>
+        <v>672</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>45752.09993055555</v>
+        <v>45752.099930555552</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D51" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E51" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H51" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I51" s="5">
-        <v>531.0</v>
+        <v>531</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>45752.09826388889</v>
+        <v>45752.098263888889</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E52" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H52" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I52" s="5">
-        <v>859.0</v>
+        <v>859</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>45752.097349537034</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E53" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H53" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I53" s="5">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>45752.082337962966</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D54" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E54" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H54" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I54" s="5">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>45752.07813657408</v>
+        <v>45752.078136574077</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D55" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E55" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H55" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I55" s="5">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>45752.07417824074</v>
+        <v>45752.074178240742</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D56" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E56" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H56" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I56" s="5">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>45752.06657407407</v>
+        <v>45752.066574074073</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D57" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E57" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H57" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I57" s="5">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>45752.048425925925</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E58" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I58" s="5">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>45752.04828703704</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D59" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E59" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H59" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I59" s="5">
-        <v>509.0</v>
+        <v>509</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>45752.046331018515</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D60" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E60" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H60" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I60" s="5">
-        <v>401.0</v>
+        <v>401</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>45752.040127314816</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E61" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H61" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I61" s="5">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>45752.039722222224</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D62" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E62" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H62" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I62" s="5">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>45752.030590277776</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D63" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E63" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H63" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I63" s="5">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>45752.02991898148</v>
+        <v>45752.029918981483</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D64" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E64" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H64" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I64" s="5">
-        <v>227.0</v>
+        <v>227</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>45752.02836805556</v>
+        <v>45752.028368055559</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D65" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E65" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H65" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I65" s="5">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>45752.02627314815</v>
+        <v>45752.026273148149</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D66" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E66" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H66" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I66" s="5">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>45752.02033564815</v>
+        <v>45752.020335648151</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D67" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E67" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H67" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I67" s="5">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>45752.01795138889</v>
+        <v>45752.017951388887</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D68" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E68" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F68" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G68" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H68" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I68" s="5">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>45752.00923611111</v>
+        <v>45752.009236111109</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D69" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E69" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H69" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I69" s="5">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>45752.0078587963</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D70" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E70" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H70" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I70" s="5">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>45752.00570601852</v>
+        <v>45752.005706018521</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D71" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E71" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H71" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I71" s="5">
-        <v>321.0</v>
+        <v>321</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>45752.0034375</v>
+        <v>45752.003437500003</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E72" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I72" s="5">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>45751.99664351852</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D73" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E73" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H73" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I73" s="5">
-        <v>657.0</v>
+        <v>657</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>45751.99349537037</v>
+        <v>45751.993495370371</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D74" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E74" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H74" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I74" s="5">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>45751.9787037037</v>
+        <v>45751.978703703702</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D75" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E75" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H75" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I75" s="5">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>45751.972280092596</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D76" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E76" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H76" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I76" s="5">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>45751.96293981482</v>
+        <v>45751.962939814817</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D77" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E77" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H77" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I77" s="5">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>45751.95998842592</v>
+        <v>45751.959988425922</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D78" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E78" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G78" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H78" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I78" s="5">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>45751.95869212963</v>
+        <v>45751.958692129629</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D79" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E79" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H79" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I79" s="5">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>45751.95459490741</v>
+        <v>45751.954594907409</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D80" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E80" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H80" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I80" s="5">
-        <v>524.0</v>
+        <v>524</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>45751.952523148146</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D81" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E81" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H81" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I81" s="5">
-        <v>384.0</v>
+        <v>384</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>45751.95201388889</v>
+        <v>45751.952013888891</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D82" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E82" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H82" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I82" s="5">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>45751.94899305556</v>
+        <v>45751.948993055557</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D83" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E83" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H83" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I83" s="5">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>45751.93952546296</v>
+        <v>45751.939525462964</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D84" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E84" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H84" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I84" s="5">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>45751.93766203704</v>
+        <v>45751.937662037039</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D85" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E85" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H85" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I85" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>45751.933541666665</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E86" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F86" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I86" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>45751.92223379629</v>
+        <v>45751.922233796293</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D87" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E87" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F87" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G87" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H87" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I87" s="5">
-        <v>728.0</v>
+        <v>728</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>45751.92170138889</v>
+        <v>45751.921701388892</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D88" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E88" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F88" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H88" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I88" s="5">
-        <v>409.0</v>
+        <v>409</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>45751.919652777775</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="D89" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E89" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F89" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H89" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I89" s="5">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>45751.90697916667</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D90" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E90" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F90" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H90" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I90" s="5">
-        <v>681.0</v>
+        <v>681</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>45751.88995370371</v>
+        <v>45751.889953703707</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D91" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E91" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F91" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G91" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H91" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I91" s="5">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>45751.88836805556</v>
+        <v>45751.888368055559</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D92" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E92" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F92" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G92" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H92" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I92" s="5">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>45751.88344907408</v>
+        <v>45751.883449074077</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D93" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E93" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F93" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G93" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H93" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I93" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>45751.88244212963</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D94" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E94" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H94" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I94" s="5">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>45751.877592592595</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D95" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E95" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F95" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G95" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H95" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I95" s="5">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>45751.87537037037</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D96" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E96" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F96" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G96" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H96" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I96" s="5">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>45751.87241898148</v>
+        <v>45751.872418981482</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D97" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E97" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F97" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G97" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H97" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I97" s="5">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>45751.872199074074</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D98" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E98" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F98" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G98" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H98" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I98" s="5">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>45751.86914351852</v>
+        <v>45751.869143518517</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D99" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E99" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F99" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G99" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H99" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I99" s="5">
-        <v>342.0</v>
+        <v>342</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>45751.86796296296</v>
+        <v>45751.867962962962</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E100" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F100" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I100" s="5">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>45751.86039351852</v>
+        <v>45751.860393518517</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D101" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E101" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F101" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G101" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H101" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I101" s="5">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>45751.85980324074</v>
+        <v>45751.859803240739</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D102" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E102" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F102" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G102" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H102" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I102" s="5">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>45751.85532407407</v>
+        <v>45751.855324074073</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D103" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E103" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F103" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G103" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H103" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I103" s="5">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>45751.85078703704</v>
+        <v>45751.850787037038</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D104" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E104" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F104" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G104" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H104" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I104" s="5">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>45751.84979166667</v>
+        <v>45751.849791666667</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D105" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E105" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F105" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G105" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H105" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I105" s="5">
-        <v>553.0</v>
+        <v>553</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>45751.846284722225</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D106" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E106" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F106" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G106" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H106" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I106" s="5">
-        <v>287.0</v>
+        <v>287</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>45751.8409375</v>
+        <v>45751.840937499997</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D107" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E107" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F107" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G107" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H107" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I107" s="5">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>45751.837685185186</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D108" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E108" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F108" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G108" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H108" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I108" s="5">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>45751.83283564815</v>
+        <v>45751.832835648151</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D109" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E109" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F109" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G109" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H109" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I109" s="5">
-        <v>401.0</v>
+        <v>401</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>45751.83268518518</v>
+        <v>45751.832685185182</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D110" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E110" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F110" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G110" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H110" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I110" s="5">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>45751.83015046296</v>
+        <v>45751.830150462964</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D111" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E111" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F111" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G111" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H111" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I111" s="5">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>45751.82664351852</v>
+        <v>45751.826643518521</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D112" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E112" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F112" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G112" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H112" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I112" s="5">
-        <v>247.0</v>
+        <v>247</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>45751.81793981481</v>
+        <v>45751.817939814813</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D113" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E113" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F113" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G113" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H113" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I113" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>45751.81211805555</v>
+        <v>45751.812118055554</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E114" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F114" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I114" s="5">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>45751.811585648145</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D115" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E115" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F115" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G115" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H115" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I115" s="5">
-        <v>369.0</v>
+        <v>369</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>45751.81077546296</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D116" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E116" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F116" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G116" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H116" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I116" s="5">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
-        <v>45751.80222222222</v>
+        <v>45751.802222222221</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D117" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E117" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F117" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G117" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H117" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I117" s="5">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="118" ht="15.75" customHeight="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>45751.80195601852</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D118" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E118" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F118" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G118" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H118" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I118" s="5">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>45751.80152777778</v>
+        <v>45751.801527777781</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D119" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E119" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F119" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G119" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H119" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I119" s="5">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>45751.79251157407</v>
+        <v>45751.792511574073</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D120" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E120" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F120" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G120" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H120" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I120" s="5">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>45751.77836805556</v>
+        <v>45751.778368055559</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D121" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E121" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F121" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G121" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H121" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I121" s="5">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>45751.77384259259</v>
+        <v>45751.773842592593</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D122" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E122" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F122" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G122" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H122" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I122" s="5">
-        <v>489.0</v>
+        <v>489</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>45751.76855324074</v>
+        <v>45751.768553240741</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D123" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E123" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F123" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G123" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H123" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I123" s="5">
-        <v>507.0</v>
+        <v>507</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>45751.76721064815</v>
+        <v>45751.767210648148</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D124" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E124" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F124" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G124" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H124" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I124" s="5">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>45751.76275462963</v>
+        <v>45751.762754629628</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D125" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E125" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F125" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G125" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H125" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I125" s="5">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>45751.762557870374</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D126" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E126" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F126" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G126" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H126" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I126" s="5">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>45751.7621875</v>
+        <v>45751.762187499997</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D127" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E127" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F127" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G127" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H127" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I127" s="5">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>45751.76063657407</v>
+        <v>45751.760636574072</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E128" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F128" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I128" s="5">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>45751.75798611111</v>
+        <v>45751.757986111108</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D129" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E129" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F129" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H129" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I129" s="5">
-        <v>286.0</v>
+        <v>286</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>45751.757256944446</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D130" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E130" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F130" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G130" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H130" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I130" s="5">
-        <v>659.0</v>
+        <v>659</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>45751.75295138889</v>
+        <v>45751.752951388888</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D131" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E131" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F131" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G131" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H131" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I131" s="5">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>45751.74377314815</v>
+        <v>45751.743773148148</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D132" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E132" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F132" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G132" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H132" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I132" s="5">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>45751.74092592593</v>
+        <v>45751.740925925929</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D133" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E133" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F133" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G133" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H133" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I133" s="5">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>45751.74030092593</v>
+        <v>45751.740300925929</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D134" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E134" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F134" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G134" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H134" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I134" s="5">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>45751.738078703704</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D135" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E135" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F135" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G135" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H135" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I135" s="5">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>45751.73070601852</v>
+        <v>45751.730706018519</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D136" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E136" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F136" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G136" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H136" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I136" s="5">
-        <v>257.0</v>
+        <v>257</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>45751.72858796296</v>
+        <v>45751.728587962964</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D137" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E137" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F137" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G137" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H137" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I137" s="5">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>45751.726122685184</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D138" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E138" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F138" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G138" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H138" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I138" s="5">
-        <v>566.0</v>
+        <v>566</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>45751.725173611114</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D139" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E139" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F139" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G139" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H139" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I139" s="5">
-        <v>554.0</v>
+        <v>554</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>45751.72006944445</v>
+        <v>45751.720069444447</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D140" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E140" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F140" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G140" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H140" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I140" s="5">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>45751.71839120371</v>
+        <v>45751.718391203707</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D141" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E141" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F141" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G141" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H141" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I141" s="5">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>45751.71608796297</v>
+        <v>45751.716087962966</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E142" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F142" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I142" s="5">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>45751.715636574074</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D143" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E143" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F143" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G143" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H143" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I143" s="5">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="144" ht="15.75" customHeight="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>45751.712372685186</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D144" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E144" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F144" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G144" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H144" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I144" s="5">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>45751.7106712963</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D145" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E145" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F145" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G145" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H145" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I145" s="5">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="146" ht="15.75" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>45751.710277777776</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D146" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E146" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F146" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G146" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H146" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I146" s="5">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>45751.7094212963</v>
+        <v>45751.709421296298</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D147" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E147" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F147" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G147" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H147" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I147" s="5">
-        <v>291.0</v>
+        <v>291</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>45751.70914351852</v>
+        <v>45751.709143518521</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D148" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E148" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F148" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G148" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H148" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I148" s="5">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>45751.70155092593</v>
+        <v>45751.701550925929</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D149" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E149" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F149" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G149" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H149" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I149" s="5">
-        <v>418.0</v>
+        <v>418</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>45751.69778935185</v>
+        <v>45751.697789351849</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D150" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E150" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F150" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G150" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H150" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I150" s="5">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>45751.69731481482</v>
+        <v>45751.697314814817</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D151" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E151" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F151" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G151" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H151" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I151" s="5">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>45751.691608796296</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D152" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E152" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F152" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G152" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H152" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I152" s="5">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="153" ht="15.75" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>45751.69050925926</v>
+        <v>45751.690509259257</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D153" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E153" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F153" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G153" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H153" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I153" s="5">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
-        <v>45751.68991898148</v>
+        <v>45751.689918981479</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D154" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E154" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F154" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G154" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H154" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I154" s="5">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="155" ht="15.75" customHeight="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>45751.68921296296</v>
+        <v>45751.689212962963</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D155" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E155" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F155" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G155" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H155" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I155" s="5">
-        <v>821.0</v>
+        <v>821</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="156" ht="15.75" customHeight="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
-        <v>45751.68349537037</v>
+        <v>45751.683495370373</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E156" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F156" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I156" s="5">
-        <v>541.0</v>
+        <v>541</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="157" ht="15.75" customHeight="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>45751.67049768518</v>
+        <v>45751.670497685183</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D157" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E157" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F157" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G157" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H157" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I157" s="5">
-        <v>254.0</v>
+        <v>254</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
-        <v>45751.66438657408</v>
+        <v>45751.664386574077</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D158" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E158" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F158" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G158" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H158" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I158" s="5">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>45751.663194444445</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C159" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D159" s="5">
+        <v>1</v>
+      </c>
+      <c r="E159" s="5">
+        <v>0</v>
+      </c>
+      <c r="F159" s="5">
+        <v>1</v>
+      </c>
+      <c r="G159" s="5">
+        <v>0</v>
+      </c>
+      <c r="H159" s="5">
+        <v>0</v>
+      </c>
+      <c r="I159" s="5">
         <v>208</v>
       </c>
-      <c r="D159" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E159" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F159" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G159" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H159" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I159" s="5">
-        <v>208.0</v>
-      </c>
       <c r="J159" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="160" ht="15.75" customHeight="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>45751.661828703705</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D160" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E160" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F160" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G160" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H160" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I160" s="5">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="161" ht="15.75" customHeight="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
-        <v>45751.64685185185</v>
+        <v>45751.646851851852</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D161" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E161" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F161" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G161" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H161" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I161" s="5">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="162" ht="15.75" customHeight="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>45751.644421296296</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D162" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E162" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F162" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G162" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H162" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I162" s="5">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="163" ht="15.75" customHeight="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
-        <v>45751.6415625</v>
+        <v>45751.641562500001</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D163" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E163" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F163" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G163" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H163" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I163" s="5">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="164" ht="15.75" customHeight="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
-        <v>45751.63916666667</v>
+        <v>45751.639166666668</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D164" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E164" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F164" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G164" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H164" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I164" s="5">
-        <v>726.0</v>
+        <v>726</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="165" ht="15.75" customHeight="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>45751.618055555555</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D165" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E165" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F165" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G165" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H165" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I165" s="5">
-        <v>219.0</v>
+        <v>219</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="166" ht="15.75" customHeight="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
-        <v>45751.60288194445</v>
+        <v>45751.602881944447</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D166" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E166" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F166" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G166" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H166" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I166" s="5">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="167" ht="15.75" customHeight="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
-        <v>45751.49171296296</v>
+        <v>45751.491712962961</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="D167" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E167" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F167" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G167" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H167" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I167" s="5">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <autoFilter ref="A1:J167" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J2"/>
-    <hyperlink r:id="rId2" ref="J3"/>
-    <hyperlink r:id="rId3" ref="J4"/>
-    <hyperlink r:id="rId4" ref="J5"/>
-    <hyperlink r:id="rId5" ref="J6"/>
-    <hyperlink r:id="rId6" ref="J7"/>
-    <hyperlink r:id="rId7" ref="J8"/>
-    <hyperlink r:id="rId8" ref="J9"/>
-    <hyperlink r:id="rId9" ref="J10"/>
-    <hyperlink r:id="rId10" ref="J11"/>
-    <hyperlink r:id="rId11" ref="J12"/>
-    <hyperlink r:id="rId12" ref="J13"/>
-    <hyperlink r:id="rId13" ref="J14"/>
-    <hyperlink r:id="rId14" ref="J15"/>
-    <hyperlink r:id="rId15" ref="J16"/>
-    <hyperlink r:id="rId16" ref="J17"/>
-    <hyperlink r:id="rId17" ref="J18"/>
-    <hyperlink r:id="rId18" ref="J19"/>
-    <hyperlink r:id="rId19" ref="J20"/>
-    <hyperlink r:id="rId20" ref="J21"/>
-    <hyperlink r:id="rId21" ref="J22"/>
-    <hyperlink r:id="rId22" ref="J23"/>
-    <hyperlink r:id="rId23" ref="J24"/>
-    <hyperlink r:id="rId24" ref="J25"/>
-    <hyperlink r:id="rId25" ref="J26"/>
-    <hyperlink r:id="rId26" ref="J27"/>
-    <hyperlink r:id="rId27" ref="J28"/>
-    <hyperlink r:id="rId28" ref="J29"/>
-    <hyperlink r:id="rId29" ref="J30"/>
-    <hyperlink r:id="rId30" ref="J31"/>
-    <hyperlink r:id="rId31" ref="J32"/>
-    <hyperlink r:id="rId32" ref="J33"/>
-    <hyperlink r:id="rId33" ref="J34"/>
-    <hyperlink r:id="rId34" ref="J35"/>
-    <hyperlink r:id="rId35" ref="J36"/>
-    <hyperlink r:id="rId36" ref="J37"/>
-    <hyperlink r:id="rId37" ref="J38"/>
-    <hyperlink r:id="rId38" ref="J39"/>
-    <hyperlink r:id="rId39" ref="J40"/>
-    <hyperlink r:id="rId40" ref="J41"/>
-    <hyperlink r:id="rId41" ref="J42"/>
-    <hyperlink r:id="rId42" ref="J43"/>
-    <hyperlink r:id="rId43" ref="J44"/>
-    <hyperlink r:id="rId44" ref="J45"/>
-    <hyperlink r:id="rId45" ref="J46"/>
-    <hyperlink r:id="rId46" ref="J47"/>
-    <hyperlink r:id="rId47" ref="J48"/>
-    <hyperlink r:id="rId48" ref="J49"/>
-    <hyperlink r:id="rId49" ref="J50"/>
-    <hyperlink r:id="rId50" ref="J51"/>
-    <hyperlink r:id="rId51" ref="J52"/>
-    <hyperlink r:id="rId52" ref="J53"/>
-    <hyperlink r:id="rId53" ref="J54"/>
-    <hyperlink r:id="rId54" ref="J55"/>
-    <hyperlink r:id="rId55" ref="J56"/>
-    <hyperlink r:id="rId56" ref="J57"/>
-    <hyperlink r:id="rId57" ref="J58"/>
-    <hyperlink r:id="rId58" ref="J59"/>
-    <hyperlink r:id="rId59" ref="J60"/>
-    <hyperlink r:id="rId60" ref="J61"/>
-    <hyperlink r:id="rId61" ref="J62"/>
-    <hyperlink r:id="rId62" ref="J63"/>
-    <hyperlink r:id="rId63" ref="J64"/>
-    <hyperlink r:id="rId64" ref="J65"/>
-    <hyperlink r:id="rId65" ref="J66"/>
-    <hyperlink r:id="rId66" ref="J67"/>
-    <hyperlink r:id="rId67" ref="J68"/>
-    <hyperlink r:id="rId68" ref="J69"/>
-    <hyperlink r:id="rId69" ref="J70"/>
-    <hyperlink r:id="rId70" ref="J71"/>
-    <hyperlink r:id="rId71" ref="J72"/>
-    <hyperlink r:id="rId72" ref="J73"/>
-    <hyperlink r:id="rId73" ref="J74"/>
-    <hyperlink r:id="rId74" ref="J75"/>
-    <hyperlink r:id="rId75" ref="J76"/>
-    <hyperlink r:id="rId76" ref="J77"/>
-    <hyperlink r:id="rId77" ref="J78"/>
-    <hyperlink r:id="rId78" ref="J79"/>
-    <hyperlink r:id="rId79" ref="J80"/>
-    <hyperlink r:id="rId80" ref="J81"/>
-    <hyperlink r:id="rId81" ref="J82"/>
-    <hyperlink r:id="rId82" ref="J83"/>
-    <hyperlink r:id="rId83" ref="J84"/>
-    <hyperlink r:id="rId84" ref="J85"/>
-    <hyperlink r:id="rId85" ref="J86"/>
-    <hyperlink r:id="rId86" ref="J87"/>
-    <hyperlink r:id="rId87" ref="J88"/>
-    <hyperlink r:id="rId88" ref="J89"/>
-    <hyperlink r:id="rId89" ref="J90"/>
-    <hyperlink r:id="rId90" ref="J91"/>
-    <hyperlink r:id="rId91" ref="J92"/>
-    <hyperlink r:id="rId92" ref="J93"/>
-    <hyperlink r:id="rId93" ref="J94"/>
-    <hyperlink r:id="rId94" ref="J95"/>
-    <hyperlink r:id="rId95" ref="J96"/>
-    <hyperlink r:id="rId96" ref="J97"/>
-    <hyperlink r:id="rId97" ref="J98"/>
-    <hyperlink r:id="rId98" ref="J99"/>
-    <hyperlink r:id="rId99" ref="J100"/>
-    <hyperlink r:id="rId100" ref="J101"/>
-    <hyperlink r:id="rId101" ref="J102"/>
-    <hyperlink r:id="rId102" ref="J103"/>
-    <hyperlink r:id="rId103" ref="J104"/>
-    <hyperlink r:id="rId104" ref="J105"/>
-    <hyperlink r:id="rId105" ref="J106"/>
-    <hyperlink r:id="rId106" ref="J107"/>
-    <hyperlink r:id="rId107" ref="J108"/>
-    <hyperlink r:id="rId108" ref="J109"/>
-    <hyperlink r:id="rId109" ref="J110"/>
-    <hyperlink r:id="rId110" ref="J111"/>
-    <hyperlink r:id="rId111" ref="J112"/>
-    <hyperlink r:id="rId112" ref="J113"/>
-    <hyperlink r:id="rId113" ref="J114"/>
-    <hyperlink r:id="rId114" ref="J115"/>
-    <hyperlink r:id="rId115" ref="J116"/>
-    <hyperlink r:id="rId116" ref="J117"/>
-    <hyperlink r:id="rId117" ref="J118"/>
-    <hyperlink r:id="rId118" ref="J119"/>
-    <hyperlink r:id="rId119" ref="J120"/>
-    <hyperlink r:id="rId120" ref="J121"/>
-    <hyperlink r:id="rId121" ref="J122"/>
-    <hyperlink r:id="rId122" ref="J123"/>
-    <hyperlink r:id="rId123" ref="J124"/>
-    <hyperlink r:id="rId124" ref="J125"/>
-    <hyperlink r:id="rId125" ref="J126"/>
-    <hyperlink r:id="rId126" ref="J127"/>
-    <hyperlink r:id="rId127" ref="J128"/>
-    <hyperlink r:id="rId128" ref="J129"/>
-    <hyperlink r:id="rId129" ref="J130"/>
-    <hyperlink r:id="rId130" ref="J131"/>
-    <hyperlink r:id="rId131" ref="J132"/>
-    <hyperlink r:id="rId132" ref="J133"/>
-    <hyperlink r:id="rId133" ref="J134"/>
-    <hyperlink r:id="rId134" ref="J135"/>
-    <hyperlink r:id="rId135" ref="J136"/>
-    <hyperlink r:id="rId136" ref="J137"/>
-    <hyperlink r:id="rId137" ref="J138"/>
-    <hyperlink r:id="rId138" ref="J139"/>
-    <hyperlink r:id="rId139" ref="J140"/>
-    <hyperlink r:id="rId140" ref="J141"/>
-    <hyperlink r:id="rId141" ref="J142"/>
-    <hyperlink r:id="rId142" ref="J143"/>
-    <hyperlink r:id="rId143" ref="J144"/>
-    <hyperlink r:id="rId144" ref="J145"/>
-    <hyperlink r:id="rId145" ref="J146"/>
-    <hyperlink r:id="rId146" ref="J147"/>
-    <hyperlink r:id="rId147" ref="J148"/>
-    <hyperlink r:id="rId148" ref="J149"/>
-    <hyperlink r:id="rId149" ref="J150"/>
-    <hyperlink r:id="rId150" ref="J151"/>
-    <hyperlink r:id="rId151" ref="J152"/>
-    <hyperlink r:id="rId152" ref="J153"/>
-    <hyperlink r:id="rId153" ref="J154"/>
-    <hyperlink r:id="rId154" ref="J155"/>
-    <hyperlink r:id="rId155" ref="J156"/>
-    <hyperlink r:id="rId156" ref="J157"/>
-    <hyperlink r:id="rId157" ref="J158"/>
-    <hyperlink r:id="rId158" ref="J159"/>
-    <hyperlink r:id="rId159" ref="J160"/>
-    <hyperlink r:id="rId160" ref="J161"/>
-    <hyperlink r:id="rId161" ref="J162"/>
-    <hyperlink r:id="rId162" ref="J163"/>
-    <hyperlink r:id="rId163" ref="J164"/>
-    <hyperlink r:id="rId164" ref="J165"/>
-    <hyperlink r:id="rId165" ref="J166"/>
-    <hyperlink r:id="rId166" ref="J167"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="J63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="J64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="J66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="J68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="J71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="J73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="J75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="J77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="J78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="J79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="J81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="J83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="J84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="J85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="J87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="J88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="J89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="J90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="J91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="J92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="J93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="J95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="J96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="J97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="J99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="J103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="J104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="J105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="J106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="J107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="J108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="J109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="J110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="J111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="J112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="J113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="J114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="J115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="J116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="J117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="J118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="J119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="J120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="J121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="J122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="J123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="J124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="J125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="J126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="J127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="J128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="J129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="J130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="J131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="J132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="J133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="J134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="J135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="J136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="J137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="J138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="J139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="J140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="J141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="J142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="J143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="J144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="J145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="J146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="J147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="J148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="J149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="J150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="J151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="J152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="J153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="J154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="J155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="J156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="J157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="J158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="J159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="J160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="J161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="J162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="J163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="J164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="J165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="J166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="J167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId167"/>
 </worksheet>
 </file>